--- a/your_excel_file.xlsx
+++ b/your_excel_file.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,12 +10,12 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CEF280-3FA1-4901-9708-87C247921279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="4215" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,9 +34,1398 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="469">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Genetic</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Genetic</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Genetic</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Genetic</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Genetic</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Genetic</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Genetic</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Genetic</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Genetic</t>
+  </si>
+  <si>
+    <t>PatternSearch</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Genetic</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Genetic</t>
+  </si>
+  <si>
+    <t>PatternSearch</t>
+  </si>
+  <si>
+    <t>Simulated Annealing</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Genetic</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Genetic</t>
+  </si>
+  <si>
+    <t>PatternSearch</t>
+  </si>
+  <si>
+    <t>Simulated Annealing</t>
+  </si>
+  <si>
+    <t>Surrogate</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Genetic</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Genetic</t>
+  </si>
+  <si>
+    <t>PatternSearch</t>
+  </si>
+  <si>
+    <t>Simulated Annealing</t>
+  </si>
+  <si>
+    <t>Surrogate</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Genetic</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Genetic</t>
+  </si>
+  <si>
+    <t>PatternSearch</t>
+  </si>
+  <si>
+    <t>Simulated Annealing</t>
+  </si>
+  <si>
+    <t>Surrogate</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Genetic</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Genetic</t>
+  </si>
+  <si>
+    <t>PatternSearch</t>
+  </si>
+  <si>
+    <t>Simulated Annealing</t>
+  </si>
+  <si>
+    <t>Surrogate</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Genetic</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Genetic</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Genetic</t>
+  </si>
+  <si>
+    <t>PatternSearch</t>
+  </si>
+  <si>
+    <t>Simulated Annealing</t>
+  </si>
+  <si>
+    <t>Surrogate</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Genetic</t>
+  </si>
+  <si>
+    <t>PatternSearch</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Genetic</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Genetic</t>
+  </si>
+  <si>
+    <t>PatternSearch</t>
+  </si>
+  <si>
+    <t>Simulated Annealing</t>
+  </si>
+  <si>
+    <t>Surrogate</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Genetic</t>
+  </si>
+  <si>
+    <t>PatternSearch</t>
+  </si>
+  <si>
+    <t>Simulated Annealing</t>
+  </si>
+  <si>
+    <t>best_params_1</t>
+  </si>
+  <si>
+    <t>best_params_2</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>absError</t>
+  </si>
+  <si>
+    <t>tElapsed</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Genetic</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Genetic</t>
+  </si>
+  <si>
+    <t>PatternSearch</t>
+  </si>
+  <si>
+    <t>Simulated Annealing</t>
+  </si>
+  <si>
+    <t>Surrogate</t>
+  </si>
+  <si>
+    <t>Multistart</t>
+  </si>
+  <si>
+    <t>Globalsearch</t>
+  </si>
+  <si>
+    <t>Genetic</t>
+  </si>
+  <si>
+    <t>PatternSearch</t>
+  </si>
+  <si>
+    <t>Simulated Annealing</t>
+  </si>
+  <si>
+    <t>Surrogate</t>
   </si>
   <si>
     <t>best_params_1</t>
@@ -88,7 +1477,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -103,14 +1492,16 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,58 +1782,827 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="true"/>
+    <col min="2" max="2" width="14.42578125" customWidth="true"/>
+    <col min="4" max="4" width="15.5703125" customWidth="true"/>
+    <col min="5" max="5" width="16.28515625" customWidth="true"/>
+    <col min="6" max="6" width="10.7109375" customWidth="true"/>
+    <col min="3" max="3" width="14.42578125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    <row r="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>466</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.25">
+      <c r="A2" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B2" s="0">
+        <v>13046.072988049535</v>
+      </c>
+      <c r="C2" s="0">
+        <v>88133.032725026089</v>
+      </c>
+      <c r="D2" s="0">
+        <v>2.3234866663232902e-08</v>
+      </c>
+      <c r="E2" s="0">
+        <v>-2.5778667390972216e-11</v>
+      </c>
+      <c r="F2" s="0">
+        <v>56.792971399999999</v>
+      </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" x14ac:dyDescent="0.25">
+      <c r="A3" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B3" s="0">
+        <v>77347.53857041843</v>
+      </c>
+      <c r="C3" s="0">
+        <v>63660.811952944729</v>
+      </c>
+      <c r="D3" s="0">
+        <v>2.3565348672161676e-08</v>
+      </c>
+      <c r="E3" s="0">
+        <v>-3.5626067631974679e-10</v>
+      </c>
+      <c r="F3" s="0">
+        <v>11.765701399999999</v>
+      </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" x14ac:dyDescent="0.25">
+      <c r="A4" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B4" s="0">
+        <v>23227.668808613162</v>
+      </c>
+      <c r="C4" s="0">
+        <v>69889.438157095428</v>
+      </c>
+      <c r="D4" s="0">
+        <v>2.3316985705096395e-08</v>
+      </c>
+      <c r="E4" s="0">
+        <v>-1.0789770925446578e-10</v>
+      </c>
+      <c r="F4" s="0">
+        <v>9.9385282000000004</v>
+      </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" x14ac:dyDescent="0.25">
+      <c r="A5" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B5" s="0">
+        <v>19325.322358196925</v>
+      </c>
+      <c r="C5" s="0">
+        <v>63373.504227188547</v>
+      </c>
+      <c r="D5" s="0">
+        <v>2.3324848046642491e-08</v>
+      </c>
+      <c r="E5" s="0">
+        <v>-1.1576005080056156e-10</v>
+      </c>
+      <c r="F5" s="0">
+        <v>10.5765002</v>
+      </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" x14ac:dyDescent="0.25">
+      <c r="A6" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B6" s="0">
+        <v>18346.517816830015</v>
+      </c>
+      <c r="C6" s="0">
+        <v>38222.665327204726</v>
+      </c>
+      <c r="D6" s="0">
+        <v>2.346980067082699e-08</v>
+      </c>
+      <c r="E6" s="0">
+        <v>-2.6071267498505993e-10</v>
+      </c>
+      <c r="F6" s="0">
+        <v>9.8276771000000007</v>
+      </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" x14ac:dyDescent="0.25">
+      <c r="A7" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B7" s="0">
+        <v>11027.987921543685</v>
+      </c>
+      <c r="C7" s="0">
+        <v>70501.085116258619</v>
+      </c>
+      <c r="D7" s="0">
+        <v>2.327041769719796e-08</v>
+      </c>
+      <c r="E7" s="0">
+        <v>-6.1329701356030825e-11</v>
+      </c>
+      <c r="F7" s="0">
+        <v>9.4369203000000006</v>
+      </c>
       <c r="H7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B8" s="0">
+        <v>4013.9268959321425</v>
+      </c>
+      <c r="C8" s="0">
+        <v>35838.243850764484</v>
+      </c>
+      <c r="D8" s="0">
+        <v>2.3421335662217011e-08</v>
+      </c>
+      <c r="E8" s="0">
+        <v>-2.1224766637508169e-10</v>
+      </c>
+      <c r="F8" s="0">
+        <v>9.9176175000000004</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B9" s="0">
+        <v>61743.079566964101</v>
+      </c>
+      <c r="C9" s="0">
+        <v>67850.156292396932</v>
+      </c>
+      <c r="D9" s="0">
+        <v>2.348583323981106e-08</v>
+      </c>
+      <c r="E9" s="0">
+        <v>-2.7674524396913083e-10</v>
+      </c>
+      <c r="F9" s="0">
+        <v>11.212475899999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B10" s="0">
+        <v>20094.741173725422</v>
+      </c>
+      <c r="C10" s="0">
+        <v>88436.991780485943</v>
+      </c>
+      <c r="D10" s="0">
+        <v>2.3254204105101228e-08</v>
+      </c>
+      <c r="E10" s="0">
+        <v>-4.5116109259298004e-11</v>
+      </c>
+      <c r="F10" s="0">
+        <v>10.148574</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B11" s="0">
+        <v>67508.946949815974</v>
+      </c>
+      <c r="C11" s="0">
+        <v>77673.844683733681</v>
+      </c>
+      <c r="D11" s="0">
+        <v>2.3461398499359286e-08</v>
+      </c>
+      <c r="E11" s="0">
+        <v>-2.5231050351735651e-10</v>
+      </c>
+      <c r="F11" s="0">
+        <v>9.7935137000000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B12" s="0">
+        <v>71111.075856785581</v>
+      </c>
+      <c r="C12" s="0">
+        <v>78317.599475905925</v>
+      </c>
+      <c r="D12" s="0">
+        <v>2.3471245107763668e-08</v>
+      </c>
+      <c r="E12" s="0">
+        <v>-2.6215711192173867e-10</v>
+      </c>
+      <c r="F12" s="0">
+        <v>10.342823299999999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B13" s="0">
+        <v>63689.669195647948</v>
+      </c>
+      <c r="C13" s="0">
+        <v>68809.299140315707</v>
+      </c>
+      <c r="D13" s="0">
+        <v>2.3488431226910981e-08</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-2.7934323106905164e-10</v>
+      </c>
+      <c r="F13" s="0">
+        <v>10.0522423</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B14" s="0">
+        <v>27002.767471522657</v>
+      </c>
+      <c r="C14" s="0">
+        <v>75907.034120764001</v>
+      </c>
+      <c r="D14" s="0">
+        <v>2.3311916244202315e-08</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-1.0282824836038576e-10</v>
+      </c>
+      <c r="F14" s="0">
+        <v>9.6197111999999994</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B15" s="0">
+        <v>5564.2059968461754</v>
+      </c>
+      <c r="C15" s="0">
+        <v>87254.387206685147</v>
+      </c>
+      <c r="D15" s="0">
+        <v>2.3222278313524951e-08</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-1.3190317683021415e-11</v>
+      </c>
+      <c r="F15" s="0">
+        <v>9.7253029000000009</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B16" s="0">
+        <v>44150.702955234563</v>
+      </c>
+      <c r="C16" s="0">
+        <v>84574.914059890492</v>
+      </c>
+      <c r="D16" s="0">
+        <v>2.3349622773857946e-08</v>
+      </c>
+      <c r="E16" s="0">
+        <v>-1.4053477801601591e-10</v>
+      </c>
+      <c r="F16" s="0">
+        <v>10.085512100000001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B17" s="0">
+        <v>11362.031273296525</v>
+      </c>
+      <c r="C17" s="0">
+        <v>98442.491063214125</v>
+      </c>
+      <c r="D17" s="0">
+        <v>2.3213508905535846e-08</v>
+      </c>
+      <c r="E17" s="0">
+        <v>-4.4209096939162815e-12</v>
+      </c>
+      <c r="F17" s="0">
+        <v>9.5431684000000008</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B18" s="0">
+        <v>28275.73996327625</v>
+      </c>
+      <c r="C18" s="0">
+        <v>90089.768680753492</v>
+      </c>
+      <c r="D18" s="0">
+        <v>2.3277043165994322e-08</v>
+      </c>
+      <c r="E18" s="0">
+        <v>-6.7955170152391931e-11</v>
+      </c>
+      <c r="F18" s="0">
+        <v>9.8251687000000008</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B19" s="0">
+        <v>57015.135400454506</v>
+      </c>
+      <c r="C19" s="0">
+        <v>92939.560393054897</v>
+      </c>
+      <c r="D19" s="0">
+        <v>2.3368528014028507e-08</v>
+      </c>
+      <c r="E19" s="0">
+        <v>-1.5944001818657784e-10</v>
+      </c>
+      <c r="F19" s="0">
+        <v>9.5984349000000009</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="B20" s="0">
+        <v>300000</v>
+      </c>
+      <c r="C20" s="0">
+        <v>300000</v>
+      </c>
+      <c r="D20" s="0">
+        <v>4.6299370610981457e-08</v>
+      </c>
+      <c r="E20" s="0">
+        <v>-2.3090282615139527e-08</v>
+      </c>
+      <c r="F20" s="0">
+        <v>22.1353674</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="B21" s="0">
+        <v>91635.524233109303</v>
+      </c>
+      <c r="C21" s="0">
+        <v>27053.846069454135</v>
+      </c>
+      <c r="D21" s="0">
+        <v>2.3904931046545796e-08</v>
+      </c>
+      <c r="E21" s="0">
+        <v>-6.9584305070386669e-10</v>
+      </c>
+      <c r="F21" s="0">
+        <v>10.2899005</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="B22" s="0">
+        <v>300000</v>
+      </c>
+      <c r="C22" s="0">
+        <v>300000</v>
+      </c>
+      <c r="D22" s="0">
+        <v>4.6299370610981457e-08</v>
+      </c>
+      <c r="E22" s="0">
+        <v>-2.3090282615139527e-08</v>
+      </c>
+      <c r="F22" s="0">
+        <v>22.868450899999999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="B23" s="0">
+        <v>5767.0244573604814</v>
+      </c>
+      <c r="C23" s="0">
+        <v>99134.991126644411</v>
+      </c>
+      <c r="D23" s="0">
+        <v>2.3204433979258386e-08</v>
+      </c>
+      <c r="E23" s="0">
+        <v>4.6540165835431674e-12</v>
+      </c>
+      <c r="F23" s="0">
+        <v>9.4800044000000003</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="B24" s="0">
+        <v>300000</v>
+      </c>
+      <c r="C24" s="0">
+        <v>300000</v>
+      </c>
+      <c r="D24" s="0">
+        <v>4.6299370610981457e-08</v>
+      </c>
+      <c r="E24" s="0">
+        <v>-2.3090282615139527e-08</v>
+      </c>
+      <c r="F24" s="0">
+        <v>22.5020256</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="B25" s="0">
+        <v>300000</v>
+      </c>
+      <c r="C25" s="0">
+        <v>300000</v>
+      </c>
+      <c r="D25" s="0">
+        <v>4.6299370610981457e-08</v>
+      </c>
+      <c r="E25" s="0">
+        <v>-2.3090282615139527e-08</v>
+      </c>
+      <c r="F25" s="0">
+        <v>22.5976298</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="B26" s="0">
+        <v>6297.5283083732766</v>
+      </c>
+      <c r="C26" s="0">
+        <v>71008.928585989139</v>
+      </c>
+      <c r="D26" s="0">
+        <v>2.325750429300571e-08</v>
+      </c>
+      <c r="E26" s="0">
+        <v>-4.8416297163779849e-11</v>
+      </c>
+      <c r="F26" s="0">
+        <v>14.1067021</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B27" s="0">
+        <v>22324.894547161817</v>
+      </c>
+      <c r="C27" s="0">
+        <v>93016.567040454087</v>
+      </c>
+      <c r="D27" s="0">
+        <v>2.3251328425140583e-08</v>
+      </c>
+      <c r="E27" s="0">
+        <v>-4.2240429298653104e-11</v>
+      </c>
+      <c r="F27" s="0">
+        <v>9.4323042000000008</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B28" s="0">
+        <v>15650.197385105837</v>
+      </c>
+      <c r="C28" s="0">
+        <v>88196.594504206587</v>
+      </c>
+      <c r="D28" s="0">
+        <v>2.3241622214949118e-08</v>
+      </c>
+      <c r="E28" s="0">
+        <v>-3.2534219107188677e-11</v>
+      </c>
+      <c r="F28" s="0">
+        <v>10.404272799999999</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B29" s="0">
+        <v>3892.6466791438902</v>
+      </c>
+      <c r="C29" s="0">
+        <v>48488.072059772734</v>
+      </c>
+      <c r="D29" s="0">
+        <v>2.3335155070982198e-08</v>
+      </c>
+      <c r="E29" s="0">
+        <v>-1.2606707514026839e-10</v>
+      </c>
+      <c r="F29" s="0">
+        <v>10.8895956</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="B30" s="0">
+        <v>300000</v>
+      </c>
+      <c r="C30" s="0">
+        <v>300000</v>
+      </c>
+      <c r="D30" s="0">
+        <v>4.6299370610981457e-08</v>
+      </c>
+      <c r="E30" s="0">
+        <v>-2.3090282615139527e-08</v>
+      </c>
+      <c r="F30" s="0">
+        <v>24.556467300000001</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="B31" s="0">
+        <v>92403.799829560332</v>
+      </c>
+      <c r="C31" s="0">
+        <v>59292.080907795236</v>
+      </c>
+      <c r="D31" s="0">
+        <v>2.3640206373571018e-08</v>
+      </c>
+      <c r="E31" s="0">
+        <v>-4.3111837772908882e-10</v>
+      </c>
+      <c r="F31" s="0">
+        <v>20.218527600000002</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="B32" s="0">
+        <v>31225.75</v>
+      </c>
+      <c r="C32" s="0">
+        <v>500000</v>
+      </c>
+      <c r="D32" s="0">
+        <v>3.4544904078899642e-08</v>
+      </c>
+      <c r="E32" s="0">
+        <v>-1.1335816083057712e-08</v>
+      </c>
+      <c r="F32" s="0">
+        <v>8.3623101000000002</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="B33" s="0">
+        <v>299610.22384054668</v>
+      </c>
+      <c r="C33" s="0">
+        <v>300437.61144812661</v>
+      </c>
+      <c r="D33" s="0">
+        <v>4.629831462451363e-08</v>
+      </c>
+      <c r="E33" s="0">
+        <v>-2.30892266286717e-08</v>
+      </c>
+      <c r="F33" s="0">
+        <v>7.5888216999999996</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="B34" s="0">
+        <v>17122.529352564135</v>
+      </c>
+      <c r="C34" s="0">
+        <v>89321.168205344991</v>
+      </c>
+      <c r="D34" s="0">
+        <v>2.3243489070284199e-08</v>
+      </c>
+      <c r="E34" s="0">
+        <v>-3.4401074442269064e-11</v>
+      </c>
+      <c r="F34" s="0">
+        <v>25.817397499999998</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="B35" s="0">
+        <v>45910.1877182057</v>
+      </c>
+      <c r="C35" s="0">
+        <v>88669.794113765718</v>
+      </c>
+      <c r="D35" s="0">
+        <v>2.3343051428408806e-08</v>
+      </c>
+      <c r="E35" s="0">
+        <v>-1.3396343256687627e-10</v>
+      </c>
+      <c r="F35" s="0">
+        <v>10.1632978</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="B36" s="0">
+        <v>300000</v>
+      </c>
+      <c r="C36" s="0">
+        <v>300000</v>
+      </c>
+      <c r="D36" s="0">
+        <v>4.6299370610981457e-08</v>
+      </c>
+      <c r="E36" s="0">
+        <v>-2.3090282615139527e-08</v>
+      </c>
+      <c r="F36" s="0">
+        <v>30.4195104</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="B37" s="0">
+        <v>38261.574056425481</v>
+      </c>
+      <c r="C37" s="0">
+        <v>95161.492728453843</v>
+      </c>
+      <c r="D37" s="0">
+        <v>2.3298311833885842e-08</v>
+      </c>
+      <c r="E37" s="0">
+        <v>-8.9223838043912623e-11</v>
+      </c>
+      <c r="F37" s="0">
+        <v>17.452731100000001</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="B38" s="0">
+        <v>31225.75</v>
+      </c>
+      <c r="C38" s="0">
+        <v>500000</v>
+      </c>
+      <c r="D38" s="0">
+        <v>3.4544904078899642e-08</v>
+      </c>
+      <c r="E38" s="0">
+        <v>-1.1335816083057712e-08</v>
+      </c>
+      <c r="F38" s="0">
+        <v>6.0030052999999999</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="B39" s="0">
+        <v>300011.92201499187</v>
+      </c>
+      <c r="C39" s="0">
+        <v>300352.44240044337</v>
+      </c>
+      <c r="D39" s="0">
+        <v>4.6298922051800166e-08</v>
+      </c>
+      <c r="E39" s="0">
+        <v>-2.3089834055958236e-08</v>
+      </c>
+      <c r="F39" s="0">
+        <v>6.0874343</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="B40" s="0">
+        <v>5028.273885442708</v>
+      </c>
+      <c r="C40" s="0">
+        <v>74219.96129186351</v>
+      </c>
+      <c r="D40" s="0">
+        <v>2.3247762198868845e-08</v>
+      </c>
+      <c r="E40" s="0">
+        <v>-3.8674203026915175e-11</v>
+      </c>
+      <c r="F40" s="0">
+        <v>23.8723712</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
